--- a/Resource/Document/SoldierType.xlsx
+++ b/Resource/Document/SoldierType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\d2d\JDEngine\Resource\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977514BD-7358-4DFC-A8EE-299867F2C7EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4C5F6-0909-4F51-BFE9-045355BF4F22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="6495" xr2:uid="{7F2AD2E9-CA8E-4DF2-BDF3-C788B345C094}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>자원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -303,6 +307,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -356,9 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +681,7 @@
   <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,93 +734,104 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="7">
         <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
